--- a/stainless_cutdata.xlsx
+++ b/stainless_cutdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForrestV\Documents\python\laserQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13064C6F-C511-4BDD-A21B-1BD6BF1EA1A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B314E09-A1CD-4E87-972D-2E9337744D64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="825" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
+    <workbookView xWindow="2985" yWindow="360" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,25 +42,25 @@
     <t>0.120 [11GA]</t>
   </si>
   <si>
-    <t>STAINLESS STEEL</t>
-  </si>
-  <si>
     <t>0.187 [3/16]</t>
   </si>
   <si>
-    <t>COST PER SQUARE FOOT</t>
-  </si>
-  <si>
-    <t>CUT SPEED</t>
-  </si>
-  <si>
-    <t>PIERCE TIME</t>
-  </si>
-  <si>
     <t>WEIGHT</t>
   </si>
   <si>
-    <t>MATERIAL COST</t>
+    <t>CUT_SPEED</t>
+  </si>
+  <si>
+    <t>PIERCE_TIME</t>
+  </si>
+  <si>
+    <t>MATERIAL_COST</t>
+  </si>
+  <si>
+    <t>COST_SQUARE_FOOT</t>
+  </si>
+  <si>
+    <t>STAINLESS_STEEL</t>
   </si>
 </sst>
 </file>
@@ -414,9 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602AB0E5-F549-4D47-8A56-90431E725018}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -432,22 +430,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,7 +555,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>22</v>

--- a/stainless_cutdata.xlsx
+++ b/stainless_cutdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForrestV\Documents\python\laserQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B314E09-A1CD-4E87-972D-2E9337744D64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0686734C-243B-4405-86AE-C0EF64548150}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="360" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
+    <workbookView xWindow="29190" yWindow="225" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>COST_SQUARE_FOOT</t>
   </si>
   <si>
-    <t>STAINLESS_STEEL</t>
+    <t>STEEL</t>
   </si>
 </sst>
 </file>

--- a/stainless_cutdata.xlsx
+++ b/stainless_cutdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ForrestV\Documents\python\laserQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0686734C-243B-4405-86AE-C0EF64548150}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C773969-49BE-43A4-A799-AB39086EFF93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="225" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
+    <workbookView minimized="1" xWindow="29190" yWindow="390" windowWidth="24315" windowHeight="15375" xr2:uid="{195FF174-2A6F-4BE5-A905-02E9184E94C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>0.035 [20GA]</t>
-  </si>
-  <si>
-    <t>0.047 [18GA]</t>
-  </si>
-  <si>
-    <t>0.060 [16GA]</t>
-  </si>
-  <si>
-    <t>0.075 [14GA]</t>
-  </si>
-  <si>
-    <t>0.120 [11GA]</t>
-  </si>
-  <si>
-    <t>0.187 [3/16]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>WEIGHT</t>
   </si>
@@ -62,11 +44,18 @@
   <si>
     <t>STEEL</t>
   </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,169 +404,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602AB0E5-F549-4D47-8A56-90431E725018}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="2">
         <v>4.5</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="3">
         <v>1.4910000000000001</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="3">
         <v>1.9</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G7" si="0">E2*F2</f>
         <v>2.8329</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
         <v>2.02</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="3">
         <v>1.9</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>3.8379999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>80</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
         <v>5.5</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="3">
         <v>2.73</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="3">
         <v>1.9</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>5.1869999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>55</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
         <v>7.5</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="3">
         <v>3.15</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="3">
         <v>5.05</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="E7" s="3">
         <v>7.89</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="3">
         <v>2.1</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>16.568999999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>